--- a/lab08/references/T2.xlsx
+++ b/lab08/references/T2.xlsx
@@ -133,13 +133,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -208,15 +208,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,7 +246,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
-      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -292,1236 +292,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Arkusz1!$G$2:$G$28</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="27"/>
-                  <c:pt idx="0">
-                    <c:v>0.00952190457139049</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0107780641428165</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0130866061016315</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0130866061016315</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0137801000164217</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.0150554530541817</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.0155593249401314</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.0173874960502209</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.0209162663034881</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.0249712760156613</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.0288508296305388</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.0343317151722234</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.0426165069740198</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v/>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Arkusz1!$G$2:$G$28</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="27"/>
-                  <c:pt idx="0">
-                    <c:v>0.00952190457139049</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.0107780641428165</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.0130866061016315</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.0130866061016315</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.0137801000164217</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.0150554530541817</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.0155593249401314</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.0173874960502209</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.0209162663034881</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.0249712760156613</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.0288508296305388</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.0343317151722234</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.0426165069740198</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v/>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="plus"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0"/>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$D$2:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.038</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.047</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.055</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.058</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.069</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.085</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.112</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.141</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$F$2:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.22314355131421</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.510825623765991</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.510825623765991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.579818495252942</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.693147180559945</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.7339691750802</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.867500567704723</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.07880966137193</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.27296567581289</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.42711635564015</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.6094379124341</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.83258146374831</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$D$2:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.038</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.047</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.055</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.058</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.069</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.085</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.112</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.141</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$K$2:$K$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.204866716128489</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.486558450805161</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.524970960079253</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.601795978627437</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.704229336691681</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.742641845965773</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.883487713304109</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.0883544294326</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.28041697580306</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.43406701289942</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.60052121975382</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.80538793588231</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="32848710"/>
-        <c:axId val="85707847"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="32848710"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Ua</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85707847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="85707847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>ln(Ia/Ia0)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="32848710"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$I$2:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.126491106406735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.194935886896179</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.202484567313166</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.216794833886788</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.234520787991171</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.240831891575846</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.262678510731274</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.291547594742265</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.316227766016838</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33466401061363</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.353553390593274</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.375499667110372</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.085</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.07</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="48367892"/>
-        <c:axId val="89089020"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="48367892"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>sqrt(Ua)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="89089020"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="89089020"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Ia[mA]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48367892"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1552,13 +323,42 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="9"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1583,70 +383,324 @@
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.01"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$G$2:$G$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0952190457139047</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.107780641428165</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.130866061016315</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0682587669040341</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0683951106181033</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0686634303444466</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0687756686088372</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0692121739211856</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0701818366536416</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0714952070131302</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0729408689992817</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0752772652709081</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0793987825263503</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$G$2:$G$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0952190457139047</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.107780641428165</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.130866061016315</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0682587669040341</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0683951106181033</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0686634303444466</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0687756686088372</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0692121739211856</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0701818366536416</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0714952070131302</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0729408689992817</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0752772652709081</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0793987825263503</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
-          <c:yVal>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000605063082110728</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00064836435229995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000658756657145363</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000677809216028621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000696861774911878</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00072457458783298</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000750555349946513</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00077133995963734</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000793856620135735</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000821569433056838</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000605063082110728</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00064836435229995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000658756657145363</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000677809216028621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000696861774911878</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00072457458783298</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000750555349946513</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00077133995963734</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000793856620135735</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000821569433056838</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:f>Arkusz1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>-0.016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15</c:v>
+                  <c:v>-0.038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>-0.041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14</c:v>
+                  <c:v>-0.047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.125</c:v>
+                  <c:v>-0.055</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12</c:v>
+                  <c:v>-0.058</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.105</c:v>
+                  <c:v>-0.069</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.085</c:v>
+                  <c:v>-0.085</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.07</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.06</c:v>
+                  <c:v>-0.112</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>-0.125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.04</c:v>
+                  <c:v>-0.141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.22314355131421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.510825623765991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.510825623765991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.579818495252942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.693147180559945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.7339691750802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.867500567704723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.07880966137193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.27296567581289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.42711635564015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.6094379124341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.83258146374831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74590278"/>
-        <c:axId val="58971453"/>
+        <c:axId val="76183611"/>
+        <c:axId val="31368859"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74590278"/>
+        <c:axId val="76183611"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1678,14 +732,14 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>X axis</a:t>
+                  <a:t>U_a [V]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1714,12 +768,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58971453"/>
+        <c:crossAx val="31368859"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58971453"/>
+        <c:axId val="31368859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +819,2011 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Y axis</a:t>
+                  <a:t>ln(I_a/I_a0) [µA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76183611"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$C$2:$C$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$C$2:$C$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000605063082110728</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00064836435229995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000658756657145363</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000677809216028621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000696861774911878</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00072457458783298</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000750555349946513</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00077133995963734</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000793856620135735</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000821569433056838</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000605063082110728</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00064836435229995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000658756657145363</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000677809216028621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000696861774911878</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00072457458783298</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000750555349946513</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00077133995963734</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000793856620135735</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000821569433056838</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="65060797"/>
+        <c:axId val="7674676"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65060797"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>U_a [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7674676"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="7674676"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>I_a [µA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65060797"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126491106406735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.194935886896179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.202484567313166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.216794833886788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.234520787991171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.240831891575846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.262678510731274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291547594742265</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33466401061363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.353553390593274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.375499667110372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="79975264"/>
+        <c:axId val="23645179"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79975264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>sqrt(U_a) [sqrt[V]]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23645179"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="23645179"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>I_a [µA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79975264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$G$2:$G$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0952190457139047</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.107780641428165</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.130866061016315</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0682587669040341</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0683951106181033</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0686634303444466</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0687756686088372</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0692121739211856</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0701818366536416</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0714952070131302</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0729408689992817</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0752772652709081</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0793987825263503</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$G$2:$G$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0952190457139047</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.107780641428165</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.130866061016315</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0682587669040341</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0683951106181033</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0686634303444466</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0687756686088372</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0692121739211856</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0701818366536416</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0714952070131302</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0729408689992817</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0752772652709081</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0793987825263503</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000605063082110728</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00064836435229995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000658756657145363</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000677809216028621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000696861774911878</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00072457458783298</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000750555349946513</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00077133995963734</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000793856620135735</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000821569433056838</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000605063082110728</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00064836435229995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000658756657145363</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000677809216028621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000696861774911878</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00072457458783298</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000750555349946513</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00077133995963734</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000793856620135735</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000821569433056838</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.22314355131421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.510825623765991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.510825623765991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.579818495252942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.693147180559945</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.7339691750802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.867500567704723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.07880966137193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.27296567581289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.42711635564015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.6094379124341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.83258146374831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="5631990"/>
+        <c:axId val="22172438"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5631990"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>U_a [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22172438"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="22172438"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>ln(I_a/I_a0)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5631990"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$C$2:$C$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$C$2:$C$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000605063082110728</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00064836435229995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000658756657145363</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000677809216028621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000696861774911878</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00072457458783298</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000750555349946513</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00077133995963734</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000793856620135735</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000821569433056838</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000605063082110728</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00064836435229995</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000658756657145363</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000677809216028621</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000696861774911878</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00072457458783298</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000750555349946513</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00077133995963734</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000793856620135735</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000821569433056838</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.069</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.112</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="87161740"/>
+        <c:axId val="51114838"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="87161740"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>U_a [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="51114838"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51114838"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>I_a [µA]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1801,7 +2859,342 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74590278"/>
+        <c:crossAx val="87161740"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126491106406735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.194935886896179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.202484567313166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.216794833886788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.234520787991171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.240831891575846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.262678510731274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.291547594742265</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.316227766016838</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33466401061363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.353553390593274</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.375499667110372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="37113504"/>
+        <c:axId val="82980136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="37113504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>sqrt(U_a) [sqrt(V)]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82980136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82980136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>I_a [µA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37113504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1832,25 +3225,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>357480</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>969480</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>835920</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="0" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="31346640" y="8670960"/>
-        <a:ext cx="10605240" cy="5872680"/>
+        <a:off x="11459520" y="8552160"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1862,25 +3255,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>336600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>969480</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>420120</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>835920</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 9"/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="31325760" y="1244160"/>
-        <a:ext cx="9989280" cy="6413040"/>
+        <a:off x="11459520" y="12160440"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1892,16 +3285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>969480</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>835920</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1909,12 +3302,102 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="798120" y="5258160"/>
+        <a:off x="11459520" y="15765840"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="798120" y="5308200"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>65160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>374760</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="773640" y="8911800"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="798120" y="12771720"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1930,8 +3413,8 @@
   </sheetPr>
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I90" activeCellId="0" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2002,8 +3485,8 @@
         <v>0.25</v>
       </c>
       <c r="C2" s="0" t="n">
-        <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
-        <v>0.00168325082306035</v>
+        <f aca="false">SQRT(((0.015)^2 + (0.05/2)^2)/3)</f>
+        <v>0.0168325082306035</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -2018,7 +3501,7 @@
       </c>
       <c r="G2" s="1" t="n">
         <f aca="false">SQRT((C2/B2)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.00952190457139049</v>
+        <v>0.0952190457139047</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">SQRT(ABS(D2))</f>
@@ -2045,9 +3528,9 @@
       <c r="B3" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
-        <v>0.00168325082306035</v>
+      <c r="C3" s="3" t="n">
+        <f aca="false">SQRT(((0.015)^2 + (0.05/2)^2)/3)</f>
+        <v>0.0168325082306035</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>-0.016</v>
@@ -2062,7 +3545,7 @@
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">SQRT((C3/B3)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0107780641428165</v>
+        <v>0.107780641428165</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">SQRT(ABS(D3))</f>
@@ -2087,9 +3570,9 @@
       <c r="B4" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
-        <v>0.00168325082306035</v>
+      <c r="C4" s="3" t="n">
+        <f aca="false">SQRT(((0.015)^2 + (0.05/2)^2)/3)</f>
+        <v>0.0168325082306035</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>-0.038</v>
@@ -2104,7 +3587,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SQRT((C4/B4)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0130866061016315</v>
+        <v>0.130866061016315</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">SQRT(ABS(D4))</f>
@@ -2139,7 +3622,7 @@
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">SQRT((C5/B5)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0130866061016315</v>
+        <v>0.0682587669040341</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">SQRT(ABS(D5))</f>
@@ -2174,7 +3657,7 @@
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">SQRT((C6/B6)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0137801000164217</v>
+        <v>0.0683951106181033</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">SQRT(ABS(D6))</f>
@@ -2216,7 +3699,7 @@
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">SQRT((C7/B7)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0150554530541817</v>
+        <v>0.0686634303444466</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">SQRT(ABS(D7))</f>
@@ -2229,7 +3712,7 @@
       <c r="M7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="4" t="n">
         <v>1.3806489E-023</v>
       </c>
       <c r="Q7" s="0" t="n">
@@ -2270,7 +3753,7 @@
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">SQRT((C8/B8)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0155593249401314</v>
+        <v>0.0687756686088372</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">SQRT(ABS(D8))</f>
@@ -2280,14 +3763,14 @@
         <f aca="false">D8*$Q$7</f>
         <v>-0.742641845965773</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="4" t="n">
         <v>1.60217657E-019</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.0558837558794599</v>
+        <v>0.0558837558794591</v>
       </c>
       <c r="R8" s="0" t="e">
         <v>#N/A</v>
@@ -2323,7 +3806,7 @@
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">SQRT((C9/B9)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0173874960502209</v>
+        <v>0.0692121739211856</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">SQRT(ABS(D9))</f>
@@ -2333,7 +3816,7 @@
         <f aca="false">D9*$Q$7</f>
         <v>-0.883487713304109</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="0" t="n">
@@ -2344,7 +3827,7 @@
         <v>0.999771466268619</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>0.0160041359326445</v>
+        <v>0.0160041359326443</v>
       </c>
       <c r="S9" s="0" t="e">
         <v>#N/A</v>
@@ -2377,7 +3860,7 @@
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">SQRT((C10/B10)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0209162663034881</v>
+        <v>0.0701818366536416</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">SQRT(ABS(D10))</f>
@@ -2387,15 +3870,15 @@
         <f aca="false">D10*$Q$7</f>
         <v>-1.0883544294326</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="3" t="n">
         <f aca="false">SQRT((N8/(N7*N6^2))^2*Q8^2)</f>
         <v>3.95557720226659</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>52496.6600016827</v>
+        <v>52496.6600016843</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>12</v>
@@ -2431,7 +3914,7 @@
       </c>
       <c r="G11" s="1" t="n">
         <f aca="false">SQRT((C11/B11)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0249712760156613</v>
+        <v>0.0714952070131302</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">SQRT(ABS(D11))</f>
@@ -2445,7 +3928,7 @@
         <v>13.44609378323</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>0.00307358840340677</v>
+        <v>0.00307358840340668</v>
       </c>
       <c r="S11" s="0" t="e">
         <v>#N/A</v>
@@ -2478,7 +3961,7 @@
       </c>
       <c r="G12" s="1" t="n">
         <f aca="false">SQRT((C12/B12)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0288508296305388</v>
+        <v>0.0729408689992817</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">SQRT(ABS(D12))</f>
@@ -2525,7 +4008,7 @@
       </c>
       <c r="G13" s="1" t="n">
         <f aca="false">SQRT((C13/B13)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0343317151722234</v>
+        <v>0.0752772652709081</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">SQRT(ABS(D13))</f>
@@ -2572,7 +4055,7 @@
       </c>
       <c r="G14" s="1" t="n">
         <f aca="false">SQRT((C14/B14)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.0426165069740198</v>
+        <v>0.0793987825263503</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">SQRT(ABS(D14))</f>
@@ -2897,7 +4380,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2923,7 +4406,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/lab08/references/T2.xlsx
+++ b/lab08/references/T2.xlsx
@@ -107,7 +107,7 @@
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,16 +139,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -292,7 +282,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -682,11 +672,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="76183611"/>
-        <c:axId val="31368859"/>
+        <c:axId val="47134656"/>
+        <c:axId val="1681735"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76183611"/>
+        <c:axId val="47134656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,12 +758,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31368859"/>
+        <c:crossAx val="1681735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31368859"/>
+        <c:axId val="1681735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,7 +845,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76183611"/>
+        <c:crossAx val="47134656"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -882,7 +872,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1236,11 +1226,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65060797"/>
-        <c:axId val="7674676"/>
+        <c:axId val="2168748"/>
+        <c:axId val="88735142"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65060797"/>
+        <c:axId val="2168748"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,12 +1312,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7674676"/>
+        <c:crossAx val="88735142"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7674676"/>
+        <c:axId val="88735142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1399,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65060797"/>
+        <c:crossAx val="2168748"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1436,7 +1426,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1572,11 +1562,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79975264"/>
-        <c:axId val="23645179"/>
+        <c:axId val="48277680"/>
+        <c:axId val="60359910"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79975264"/>
+        <c:axId val="48277680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,12 +1648,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23645179"/>
+        <c:crossAx val="60359910"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23645179"/>
+        <c:axId val="60359910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79975264"/>
+        <c:crossAx val="48277680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1772,7 +1762,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1802,6 +1792,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2125,11 +2116,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5631990"/>
-        <c:axId val="22172438"/>
+        <c:axId val="13485343"/>
+        <c:axId val="31035203"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5631990"/>
+        <c:axId val="13485343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,12 +2202,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22172438"/>
+        <c:crossAx val="31035203"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22172438"/>
+        <c:axId val="31035203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2298,7 +2289,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5631990"/>
+        <c:crossAx val="13485343"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2325,7 +2316,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2357,12 +2348,14 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2686,11 +2679,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="87161740"/>
-        <c:axId val="51114838"/>
+        <c:axId val="70792749"/>
+        <c:axId val="56342218"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87161740"/>
+        <c:axId val="70792749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,12 +2765,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51114838"/>
+        <c:crossAx val="56342218"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51114838"/>
+        <c:axId val="56342218"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2830,7 +2823,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2859,7 +2852,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87161740"/>
+        <c:crossAx val="70792749"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2886,7 +2879,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2916,6 +2909,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3021,11 +3015,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37113504"/>
-        <c:axId val="82980136"/>
+        <c:axId val="70067481"/>
+        <c:axId val="8162955"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37113504"/>
+        <c:axId val="70067481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3072,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3107,12 +3101,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82980136"/>
+        <c:crossAx val="8162955"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82980136"/>
+        <c:axId val="8162955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,7 +3159,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3194,7 +3188,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37113504"/>
+        <c:crossAx val="70067481"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3232,9 +3226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>835920</xdr:colOff>
+      <xdr:colOff>835560</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3243,7 +3237,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11459520" y="8552160"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3262,9 +3256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>835920</xdr:colOff>
+      <xdr:colOff>835560</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3273,7 +3267,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11459520" y="12160440"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3292,9 +3286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>835920</xdr:colOff>
+      <xdr:colOff>835560</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3303,7 +3297,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11459520" y="15765840"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3322,9 +3316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3333,7 +3327,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="798120" y="5308200"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3352,9 +3346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>374760</xdr:colOff>
+      <xdr:colOff>374400</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3363,7 +3357,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="773640" y="8911800"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3382,9 +3376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
+      <xdr:colOff>398880</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3393,7 +3387,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="798120" y="12771720"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3413,8 +3407,8 @@
   </sheetPr>
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I90" activeCellId="0" sqref="I90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
